--- a/DashBoard_СолодиловВВ_EX.xlsx
+++ b/DashBoard_СолодиловВВ_EX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2250" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Общая статистика" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="24">
   <si>
     <t>День</t>
   </si>
@@ -11599,10 +11599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11616,9 +11616,11 @@
     <col min="9" max="9" width="28.85546875" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11646,8 +11648,14 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="3">
+        <v>3195.304761904762</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44807</v>
       </c>
@@ -11681,8 +11689,14 @@
         <f xml:space="preserve"> J2 / (1 + 3.2221 *LOG10(COUNT(A2:A106)))</f>
         <v>1704.7646262603173</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="3">
+        <v>4580611.6754578752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44808</v>
       </c>
@@ -11692,8 +11706,14 @@
       <c r="C3" s="3">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1.5473226630404662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44809</v>
       </c>
@@ -11703,8 +11723,14 @@
       <c r="C4" s="3">
         <v>319</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="3">
+        <v>4.2108222019668506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44810</v>
       </c>
@@ -11730,7 +11756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44811</v>
       </c>
@@ -11760,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44812</v>
       </c>
@@ -11789,7 +11815,7 @@
         <v>0.15238095238095239</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44813</v>
       </c>
@@ -11818,7 +11844,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>44814</v>
       </c>
@@ -11847,7 +11873,7 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>44815</v>
       </c>
@@ -11876,7 +11902,7 @@
         <v>0.89523809523809528</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>44816</v>
       </c>
@@ -11905,7 +11931,7 @@
         <v>0.97142857142857153</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>44817</v>
       </c>
@@ -11934,7 +11960,7 @@
         <v>0.98095238095238102</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>44818</v>
       </c>
@@ -11963,7 +11989,7 @@
         <v>0.99047619047619051</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44819</v>
       </c>
@@ -11992,7 +12018,7 @@
         <v>0.99047619047619051</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>44820</v>
       </c>
@@ -12007,7 +12033,7 @@
         <v>0.99047619047619051</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>44821</v>
       </c>
@@ -13119,8 +13145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13890,7 +13916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -14716,8 +14742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15537,7 +15563,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I21" sqref="I20:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DashBoard_СолодиловВВ_EX.xlsx
+++ b/DashBoard_СолодиловВВ_EX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Общая статистика" sheetId="1" r:id="rId1"/>
@@ -11601,26 +11601,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P106"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="24.44140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>3195.304761904762</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44807</v>
       </c>
@@ -11696,7 +11696,7 @@
         <v>4580611.6754578752</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44808</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>1.5473226630404662</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44809</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>4.2108222019668506</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44810</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44811</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44812</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>0.15238095238095239</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44813</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44814</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44815</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>0.89523809523809528</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44816</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>0.97142857142857153</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44817</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>0.98095238095238102</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44818</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>0.99047619047619051</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44819</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>0.99047619047619051</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44820</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>0.99047619047619051</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44821</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44822</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>0.15238095238095239</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44823</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44824</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44825</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>0.89523809523809528</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44826</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>0.97142857142857153</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44827</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>0.98095238095238102</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44828</v>
       </c>
@@ -12217,7 +12217,7 @@
         <v>0.99047619047619051</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44829</v>
       </c>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44830</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44831</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44832</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44833</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44834</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>44835</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>44836</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>44837</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>44838</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>44839</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>44840</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>44841</v>
       </c>
@@ -12361,7 +12361,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>44842</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>44843</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>44844</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>44845</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>44846</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>44847</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>44848</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>44849</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44850</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>44851</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>44852</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>44853</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>44854</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>44855</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>44856</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>44857</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>44858</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>44859</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>44860</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>44861</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>44862</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>44863</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>44864</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>44865</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>44866</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>44867</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>44868</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>44869</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>3354</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>44870</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>44871</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>44872</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>44873</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>44874</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>44875</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>44876</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>44877</v>
       </c>
@@ -12757,7 +12757,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>44878</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>3625</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>44879</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>44880</v>
       </c>
@@ -12790,7 +12790,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>44881</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>3847</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>44882</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>44883</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>44884</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>3949</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>44885</v>
       </c>
@@ -12845,7 +12845,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>44886</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>44887</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>44888</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>4173</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>44889</v>
       </c>
@@ -12889,7 +12889,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>44890</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>44891</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>44892</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>44893</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>44894</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>4561</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>44895</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>44896</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>44897</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>5127</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>44898</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44899</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>5606</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>44900</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>5981</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>44901</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>6185</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>44902</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>6260</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>44903</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>6276</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>44904</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>6309</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>44905</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>6605</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>44906</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>6941</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>44907</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>7644</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>44908</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>7749</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>44909</v>
       </c>
@@ -13109,7 +13109,7 @@
         <v>8154</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>44910</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>10505</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>44911</v>
       </c>
@@ -13149,22 +13149,22 @@
       <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="19" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="11" max="19" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44807</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>1067.4765445558073</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44808</v>
       </c>
@@ -13248,7 +13248,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44809</v>
       </c>
@@ -13279,7 +13279,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44810</v>
       </c>
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44811</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44812</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>0.3214285714285714</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44813</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>0.6071428571428571</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44814</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44815</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>0.96428571428571419</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44816</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>0.96428571428571419</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44817</v>
       </c>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44818</v>
       </c>
@@ -13542,7 +13542,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44819</v>
       </c>
@@ -13560,7 +13560,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44820</v>
       </c>
@@ -13577,7 +13577,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44821</v>
       </c>
@@ -13606,7 +13606,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44822</v>
       </c>
@@ -13635,7 +13635,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44823</v>
       </c>
@@ -13664,7 +13664,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44824</v>
       </c>
@@ -13693,7 +13693,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44825</v>
       </c>
@@ -13722,7 +13722,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44826</v>
       </c>
@@ -13751,7 +13751,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44827</v>
       </c>
@@ -13780,7 +13780,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="16"/>
     </row>
-    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44828</v>
       </c>
@@ -13796,7 +13796,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44829</v>
       </c>
@@ -13812,7 +13812,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44830</v>
       </c>
@@ -13830,7 +13830,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44831</v>
       </c>
@@ -13848,7 +13848,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44832</v>
       </c>
@@ -13866,7 +13866,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44833</v>
       </c>
@@ -13884,7 +13884,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44834</v>
       </c>
@@ -13920,22 +13920,22 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="19" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="19" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13965,7 +13965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44835</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>690.22937690675496</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44836</v>
       </c>
@@ -14019,7 +14019,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44837</v>
       </c>
@@ -14050,7 +14050,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44838</v>
       </c>
@@ -14082,7 +14082,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44839</v>
       </c>
@@ -14113,7 +14113,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44840</v>
       </c>
@@ -14144,7 +14144,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44841</v>
       </c>
@@ -14175,7 +14175,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44842</v>
       </c>
@@ -14206,7 +14206,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44843</v>
       </c>
@@ -14237,7 +14237,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44844</v>
       </c>
@@ -14268,7 +14268,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44845</v>
       </c>
@@ -14299,7 +14299,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44846</v>
       </c>
@@ -14320,7 +14320,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44847</v>
       </c>
@@ -14341,7 +14341,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44848</v>
       </c>
@@ -14359,7 +14359,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44849</v>
       </c>
@@ -14386,7 +14386,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44850</v>
       </c>
@@ -14413,7 +14413,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44851</v>
       </c>
@@ -14440,7 +14440,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44852</v>
       </c>
@@ -14467,7 +14467,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44853</v>
       </c>
@@ -14494,7 +14494,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44854</v>
       </c>
@@ -14521,7 +14521,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44855</v>
       </c>
@@ -14548,7 +14548,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44856</v>
       </c>
@@ -14566,7 +14566,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44857</v>
       </c>
@@ -14584,7 +14584,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44858</v>
       </c>
@@ -14602,7 +14602,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44859</v>
       </c>
@@ -14620,7 +14620,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44860</v>
       </c>
@@ -14638,7 +14638,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44861</v>
       </c>
@@ -14656,7 +14656,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44862</v>
       </c>
@@ -14674,7 +14674,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>44863</v>
       </c>
@@ -14692,7 +14692,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>44864</v>
       </c>
@@ -14710,7 +14710,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>44865</v>
       </c>
@@ -14746,22 +14746,22 @@
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="19" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="27.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="19" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>44866</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>2149.5173745086795</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>44867</v>
       </c>
@@ -14845,7 +14845,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>44868</v>
       </c>
@@ -14876,7 +14876,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>44869</v>
       </c>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>44870</v>
       </c>
@@ -14939,7 +14939,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>44871</v>
       </c>
@@ -14970,7 +14970,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>44872</v>
       </c>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>44873</v>
       </c>
@@ -15032,7 +15032,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>44874</v>
       </c>
@@ -15063,7 +15063,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>44875</v>
       </c>
@@ -15094,7 +15094,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>44876</v>
       </c>
@@ -15125,7 +15125,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>44877</v>
       </c>
@@ -15146,7 +15146,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>44878</v>
       </c>
@@ -15167,7 +15167,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>44879</v>
       </c>
@@ -15185,7 +15185,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>44880</v>
       </c>
@@ -15212,7 +15212,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>44881</v>
       </c>
@@ -15239,7 +15239,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>44882</v>
       </c>
@@ -15266,7 +15266,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>44883</v>
       </c>
@@ -15293,7 +15293,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>44884</v>
       </c>
@@ -15320,7 +15320,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>44885</v>
       </c>
@@ -15347,7 +15347,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>44886</v>
       </c>
@@ -15374,7 +15374,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>44887</v>
       </c>
@@ -15392,7 +15392,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>44888</v>
       </c>
@@ -15410,7 +15410,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>44889</v>
       </c>
@@ -15428,7 +15428,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>44890</v>
       </c>
@@ -15446,7 +15446,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>44891</v>
       </c>
@@ -15464,7 +15464,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>44892</v>
       </c>
@@ -15482,7 +15482,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>44893</v>
       </c>
@@ -15500,7 +15500,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>44894</v>
       </c>
@@ -15518,7 +15518,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>44895</v>
       </c>
@@ -15536,7 +15536,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -15562,26 +15562,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I21" sqref="I20:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="19" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="19" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>44896</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>1508.2600817982313</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>44897</v>
       </c>
@@ -15665,7 +15665,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>44898</v>
       </c>
@@ -15696,7 +15696,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>44899</v>
       </c>
@@ -15728,7 +15728,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>44900</v>
       </c>
@@ -15759,7 +15759,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>44901</v>
       </c>
@@ -15790,7 +15790,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>44902</v>
       </c>
@@ -15821,7 +15821,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>44903</v>
       </c>
@@ -15852,7 +15852,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>44904</v>
       </c>
@@ -15883,7 +15883,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>44905</v>
       </c>
@@ -15914,7 +15914,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>44906</v>
       </c>
@@ -15934,7 +15934,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>44907</v>
       </c>
@@ -15952,7 +15952,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>44908</v>
       </c>
@@ -15973,7 +15973,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>44909</v>
       </c>
@@ -15991,7 +15991,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>44910</v>
       </c>
@@ -16018,7 +16018,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>44911</v>
       </c>
@@ -16045,7 +16045,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="7"/>
       <c r="C18" s="3"/>
@@ -16066,7 +16066,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="7"/>
       <c r="C19" s="3"/>
@@ -16087,7 +16087,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="7"/>
       <c r="C20" s="3"/>
@@ -16108,7 +16108,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="7"/>
       <c r="C21" s="3"/>
@@ -16129,7 +16129,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="7"/>
       <c r="C22" s="3"/>
@@ -16141,7 +16141,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="7"/>
       <c r="C23" s="3"/>
@@ -16153,7 +16153,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="7"/>
       <c r="C24" s="3"/>
@@ -16165,7 +16165,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="7"/>
       <c r="C25" s="3"/>
@@ -16177,7 +16177,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="7"/>
       <c r="C26" s="3"/>
@@ -16189,7 +16189,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
       <c r="C27" s="3"/>
@@ -16201,7 +16201,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="7"/>
       <c r="C28" s="3"/>
@@ -16213,7 +16213,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="7"/>
       <c r="C29" s="3"/>
@@ -16225,7 +16225,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="7"/>
       <c r="C30" s="3"/>
@@ -16237,7 +16237,7 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="7"/>
       <c r="C31" s="3"/>
@@ -16249,7 +16249,7 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>

--- a/DashBoard_СолодиловВВ_EX.xlsx
+++ b/DashBoard_СолодиловВВ_EX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Общая статистика" sheetId="1" r:id="rId1"/>
@@ -359,6 +359,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-69BE-4EDA-9EB1-9E6CE522B1C4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="76"/>
@@ -1059,7 +1064,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Выборочное среднее по месяцам</c:v>
+            <c:v>В. ср. по месяцам</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1153,7 +1158,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Выборочное среднее за весь период</c:v>
+            <c:v>В. ср. за весь период</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1209,7 +1214,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Среднее квадратичное по месяцам</c:v>
+            <c:v>Ср. кв. по месяцам</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1303,7 +1308,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Среднее квадратичное за весь период</c:v>
+            <c:v>Ср. кв. за весь период</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -17083,7 +17088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
@@ -17348,14 +17353,14 @@
         <v>11</v>
       </c>
       <c r="P7" s="8">
-        <f xml:space="preserve"> P6 + $V$2</f>
+        <f t="shared" ref="P7:P14" si="0" xml:space="preserve"> P6 + $V$2</f>
         <v>992.38231313015865</v>
       </c>
       <c r="Q7" s="7">
         <v>16</v>
       </c>
       <c r="R7" s="14">
-        <f t="shared" ref="R7:R14" si="0" xml:space="preserve"> Q7 / COUNT($A$2:$A$106)</f>
+        <f t="shared" ref="R7:R14" si="1" xml:space="preserve"> Q7 / COUNT($A$2:$A$106)</f>
         <v>0.15238095238095239</v>
       </c>
       <c r="S7" s="15">
@@ -17379,18 +17384,18 @@
         <v>12</v>
       </c>
       <c r="P8" s="8">
-        <f xml:space="preserve"> P7 + $V$2</f>
+        <f t="shared" si="0"/>
         <v>2697.1469393904758</v>
       </c>
       <c r="Q8" s="7">
         <v>26</v>
       </c>
       <c r="R8" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24761904761904763</v>
       </c>
       <c r="S8" s="15">
-        <f t="shared" ref="S8:S14" si="1" xml:space="preserve"> S7 + R8</f>
+        <f t="shared" ref="S8:S14" si="2" xml:space="preserve"> S7 + R8</f>
         <v>0.4</v>
       </c>
     </row>
@@ -17410,18 +17415,18 @@
         <v>13</v>
       </c>
       <c r="P9" s="8">
-        <f xml:space="preserve"> P8 + $V$2</f>
+        <f t="shared" si="0"/>
         <v>4401.9115656507929</v>
       </c>
       <c r="Q9" s="7">
         <v>43</v>
       </c>
       <c r="R9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40952380952380951</v>
       </c>
       <c r="S9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80952380952380953</v>
       </c>
     </row>
@@ -17441,18 +17446,18 @@
         <v>14</v>
       </c>
       <c r="P10" s="8">
-        <f xml:space="preserve"> P9 + $V$2</f>
+        <f t="shared" si="0"/>
         <v>6106.6761919111104</v>
       </c>
       <c r="Q10" s="7">
         <v>9</v>
       </c>
       <c r="R10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="S10" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89523809523809528</v>
       </c>
     </row>
@@ -17472,18 +17477,18 @@
         <v>15</v>
       </c>
       <c r="P11" s="8">
-        <f xml:space="preserve"> P10 + $V$2</f>
+        <f t="shared" si="0"/>
         <v>7811.440818171428</v>
       </c>
       <c r="Q11" s="7">
         <v>8</v>
       </c>
       <c r="R11" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.6190476190476197E-2</v>
       </c>
       <c r="S11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97142857142857153</v>
       </c>
     </row>
@@ -17503,18 +17508,18 @@
         <v>16</v>
       </c>
       <c r="P12" s="8">
-        <f xml:space="preserve"> P11 + $V$2</f>
+        <f t="shared" si="0"/>
         <v>9516.2054444317455</v>
       </c>
       <c r="Q12" s="7">
         <v>1</v>
       </c>
       <c r="R12" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5238095238095247E-3</v>
       </c>
       <c r="S12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98095238095238102</v>
       </c>
     </row>
@@ -17534,18 +17539,18 @@
         <v>17</v>
       </c>
       <c r="P13" s="8">
-        <f xml:space="preserve"> P12 + $V$2</f>
+        <f t="shared" si="0"/>
         <v>11220.970070692063</v>
       </c>
       <c r="Q13" s="7">
         <v>1</v>
       </c>
       <c r="R13" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5238095238095247E-3</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99047619047619051</v>
       </c>
     </row>
@@ -17565,18 +17570,18 @@
         <v>22</v>
       </c>
       <c r="P14" s="8">
-        <f xml:space="preserve"> P13 + $V$2</f>
+        <f t="shared" si="0"/>
         <v>12925.734696952381</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S14" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99047619047619051</v>
       </c>
     </row>
@@ -17614,11 +17619,11 @@
         <v>140</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" ref="P16:P23" si="2">Q7</f>
+        <f t="shared" ref="P16:P23" si="3">Q7</f>
         <v>16</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" ref="Q16:Q23" si="3">S6</f>
+        <f t="shared" ref="Q16:Q23" si="4">S6</f>
         <v>0</v>
       </c>
     </row>
@@ -17635,15 +17640,15 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="O17" s="8">
-        <f t="shared" ref="O17:O23" si="4" xml:space="preserve"> AVERAGE(P7:P8)</f>
+        <f t="shared" ref="O17:O23" si="5" xml:space="preserve"> AVERAGE(P7:P8)</f>
         <v>1844.7646262603173</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="Q17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15238095238095239</v>
       </c>
     </row>
@@ -17660,15 +17665,15 @@
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="O18" s="8">
+        <f t="shared" si="5"/>
+        <v>3549.5292525206341</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="Q18" s="10">
         <f t="shared" si="4"/>
-        <v>3549.5292525206341</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="Q18" s="10">
-        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
     </row>
@@ -17685,15 +17690,15 @@
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="O19" s="8">
+        <f t="shared" si="5"/>
+        <v>5254.2938787809517</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="Q19" s="10">
         <f t="shared" si="4"/>
-        <v>5254.2938787809517</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Q19" s="10">
-        <f t="shared" si="3"/>
         <v>0.80952380952380953</v>
       </c>
     </row>
@@ -17710,15 +17715,15 @@
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="O20" s="8">
+        <f t="shared" si="5"/>
+        <v>6959.0585050412692</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="Q20" s="10">
         <f t="shared" si="4"/>
-        <v>6959.0585050412692</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="Q20" s="10">
-        <f t="shared" si="3"/>
         <v>0.89523809523809528</v>
       </c>
     </row>
@@ -17735,15 +17740,15 @@
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="O21" s="8">
+        <f t="shared" si="5"/>
+        <v>8663.8231313015858</v>
+      </c>
+      <c r="P21" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="10">
         <f t="shared" si="4"/>
-        <v>8663.8231313015858</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="10">
-        <f t="shared" si="3"/>
         <v>0.97142857142857153</v>
       </c>
     </row>
@@ -17760,15 +17765,15 @@
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="O22" s="8">
+        <f t="shared" si="5"/>
+        <v>10368.587757561905</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="10">
         <f t="shared" si="4"/>
-        <v>10368.587757561905</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="10">
-        <f t="shared" si="3"/>
         <v>0.98095238095238102</v>
       </c>
     </row>
@@ -17785,15 +17790,15 @@
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="O23" s="8">
+        <f t="shared" si="5"/>
+        <v>12073.352383822221</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="10">
         <f t="shared" si="4"/>
-        <v>12073.352383822221</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
-        <f t="shared" si="3"/>
         <v>0.99047619047619051</v>
       </c>
     </row>
